--- a/Docs/TablasDatos-Lab6.xlsx
+++ b/Docs/TablasDatos-Lab6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\2025-2\Asistencia\Laboratorios\Lab6\ISIS1225-Laboratorio-6\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2b08d50b12e1275/Documents/Uniandes/3 Semestre/EDA/Laboratorio-6-G-09/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD33DA02-4501-4B58-9D83-E0FFBD1B4D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{FD33DA02-4501-4B58-9D83-E0FFBD1B4D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B16ACEC-4284-4513-BFD4-542B10CBE897}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="11460" windowHeight="14410" tabRatio="767" activeTab="1" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab6" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +115,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -169,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -204,6 +211,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,7 +464,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -624,8 +633,20 @@
             <c:numRef>
               <c:f>'Datos Lab6'!$B$3:$B$6</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1603376.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>562889.04</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>407488.65</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>323018.93</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -635,6 +656,18 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>429045.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>238717.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>179389.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>177862.75</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -733,6 +766,18 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1640907.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1636332.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1634131.83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1634131.83</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -742,6 +787,18 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>59336.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51960.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47492.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43214.19</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -839,7 +896,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1079,7 +1136,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1297,8 +1354,20 @@
             <c:numRef>
               <c:f>'Datos Lab6'!$B$3:$B$6</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1603376.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>562889.04</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>407488.65</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>323018.93</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1445,6 +1514,18 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1640907.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1636332.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1634131.83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1634131.83</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1645,7 +1726,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2823,7 +2904,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CAFD5B44-21B9-42C7-B503-C146EF1BA3EE}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2845,7 +2926,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9297051" cy="6073205"/>
+    <xdr:ext cx="8664937" cy="6293734"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2932,7 +3013,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -3230,25 +3311,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3259,42 +3340,58 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>0.1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="12">
+        <v>1603376.82</v>
+      </c>
+      <c r="C3" s="7">
+        <v>429045.46</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>0.5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="13">
+        <v>562889.04</v>
+      </c>
+      <c r="C4" s="7">
+        <v>238717.11</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>0.7</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="2">
+        <v>407488.65</v>
+      </c>
+      <c r="C5" s="7">
+        <v>179389.4</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10">
         <v>0.9</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="2">
+        <v>323018.93</v>
+      </c>
+      <c r="C6" s="7">
+        <v>177862.75</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -3305,35 +3402,51 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="2">
+        <v>1640907.53</v>
+      </c>
+      <c r="C11" s="5">
+        <v>59336.91</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="2">
+        <v>1636332.35</v>
+      </c>
+      <c r="C12" s="2">
+        <v>51960.45</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>6</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="2">
+        <v>1634131.83</v>
+      </c>
+      <c r="C13" s="2">
+        <v>47492.17</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="2">
+        <v>1634131.83</v>
+      </c>
+      <c r="C14" s="2">
+        <v>43214.19</v>
+      </c>
     </row>
-    <row r="23" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
@@ -3348,14 +3461,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="164883f8-7691-4ecf-b54a-664c0d0edefe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3608,21 +3719,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="164883f8-7691-4ecf-b54a-664c0d0edefe">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3647,9 +3757,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/TablasDatos-Lab6.xlsx
+++ b/Docs/TablasDatos-Lab6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2b08d50b12e1275/Documents/Uniandes/3 Semestre/EDA/Laboratorio-6-G-09/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{FD33DA02-4501-4B58-9D83-E0FFBD1B4D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B16ACEC-4284-4513-BFD4-542B10CBE897}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{EFE9C084-2F16-48BE-94EC-8AFBAE23B117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="11460" windowHeight="14410" tabRatio="767" activeTab="1" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="11460" windowHeight="14410" tabRatio="767" activeTab="2" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab6" sheetId="1" r:id="rId1"/>
@@ -2904,7 +2904,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CAFD5B44-21B9-42C7-B503-C146EF1BA3EE}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2915,7 +2915,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{680E7371-595A-4F03-ABE3-E0257A96E5F2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="40" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2959,7 +2959,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9297051" cy="6073205"/>
+    <xdr:ext cx="8664937" cy="6293734"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
